--- a/Final Data/Ohio/1 Ohio county list with county ratings.xlsx
+++ b/Final Data/Ohio/1 Ohio county list with county ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data/Ohio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{D1019730-2F93-DD46-9A05-88F777AA573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F312238-A1AF-44BB-8BFE-AD23DA78CCDF}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{D1019730-2F93-DD46-9A05-88F777AA573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBC54960-8398-44BD-A34A-EB0C196BF5DA}"/>
   <bookViews>
     <workbookView xWindow="26505" yWindow="2385" windowWidth="22830" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,7 +668,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F65" si="1">E4+0</f>
+        <f>E4+0</f>
         <v>0</v>
       </c>
     </row>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f>E6+0</f>
         <v>0</v>
       </c>
     </row>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f>E7+0</f>
         <v>0</v>
       </c>
     </row>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f>E9+0</f>
         <v>0</v>
       </c>
     </row>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f>E11+0</f>
         <v>0</v>
       </c>
     </row>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f>E12+0</f>
         <v>0</v>
       </c>
     </row>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f>E14+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f>E16+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f>E19+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f>E21+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f>E22+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f>E25+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f>E26+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f>E27+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f>E28+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f>E29+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f>E30+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f>E31+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f>E37+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f>E40+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f>E42+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f>E43+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f>E45+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f>E49+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f>E50+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f>E53+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f>E56+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f>E57+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f>E59+0</f>
         <v>0</v>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f>E61+0</f>
         <v>0</v>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f>E63+0</f>
         <v>0</v>
       </c>
     </row>
@@ -2107,6 +2107,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2116,13 +2128,13 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/Final Data/Ohio/1 Ohio county list with county ratings.xlsx
+++ b/Final Data/Ohio/1 Ohio county list with county ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data/Ohio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{D1019730-2F93-DD46-9A05-88F777AA573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBC54960-8398-44BD-A34A-EB0C196BF5DA}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{D1019730-2F93-DD46-9A05-88F777AA573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{982AC16B-0233-4A36-B456-5CAC3AF00409}"/>
   <bookViews>
     <workbookView xWindow="26505" yWindow="2385" windowWidth="22830" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>County</t>
   </si>
@@ -284,7 +284,10 @@
     <t>Scoring main</t>
   </si>
   <si>
-    <t>Scoring total</t>
+    <t>Scoring total amount</t>
+  </si>
+  <si>
+    <t>scoring on revenue</t>
   </si>
 </sst>
 </file>
@@ -665,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,10 +680,11 @@
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,8 +700,11 @@
       <c r="F1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>26</v>
       </c>
@@ -719,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>27</v>
       </c>
@@ -741,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>54</v>
       </c>
@@ -763,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -785,7 +792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>63</v>
       </c>
@@ -807,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -829,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>12</v>
       </c>
@@ -851,7 +858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25</v>
       </c>
@@ -873,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -895,7 +902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>48</v>
       </c>
@@ -917,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>64</v>
       </c>
@@ -939,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -961,7 +968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>34</v>
       </c>
@@ -983,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>19</v>
       </c>
@@ -1005,7 +1012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>73</v>
       </c>
@@ -1221,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f>E25+0</f>
+        <f t="shared" ref="F25:F31" si="1">E25+0</f>
         <v>0</v>
       </c>
     </row>
@@ -1243,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f>E26+0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1265,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f>E27+0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1287,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <f>E28+0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1309,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f>E29+0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1331,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <f>E30+0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1353,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <f>E31+0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1507,8 +1514,8 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <f>E38+5+2</f>
-        <v>7</v>
+        <f>E38+5+1</f>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1881,8 +1888,8 @@
         <v>4</v>
       </c>
       <c r="F55">
-        <f>E55+5</f>
-        <v>9</v>
+        <f>E55+5+1</f>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2079,8 +2086,8 @@
         <v>2</v>
       </c>
       <c r="F64">
-        <f>E64+2</f>
-        <v>4</v>
+        <f>E64+2+1</f>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">

--- a/Final Data/Ohio/1 Ohio county list with county ratings.xlsx
+++ b/Final Data/Ohio/1 Ohio county list with county ratings.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data/Ohio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{D1019730-2F93-DD46-9A05-88F777AA573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{982AC16B-0233-4A36-B456-5CAC3AF00409}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{D1019730-2F93-DD46-9A05-88F777AA573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F971B01-B35C-409F-B72F-F1967BCDF051}"/>
   <bookViews>
-    <workbookView xWindow="26505" yWindow="2385" windowWidth="22830" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26805" yWindow="2550" windowWidth="22830" windowHeight="15315" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sheet1 (2)'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>County</t>
   </si>
@@ -288,6 +290,21 @@
   </si>
   <si>
     <t>scoring on revenue</t>
+  </si>
+  <si>
+    <t>Couty index</t>
+  </si>
+  <si>
+    <t>F500 rating</t>
+  </si>
+  <si>
+    <t>f500 rating 2</t>
+  </si>
+  <si>
+    <t>bond price month</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -381,6 +398,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>496437</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>124024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FDCA2D-71A8-3F4A-992B-F0AC0B874D0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="4029075"/>
+          <a:ext cx="8145012" cy="1428949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,4 +2392,1484 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1052F732-1436-4005-BE78-38E3F828AA25}">
+  <dimension ref="A1:T65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>C2*2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>D2+1</f>
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D65" si="0">C3*2</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>D3+0</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>D4+0</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>11332</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>D5+6</f>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>D6+0</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>D7+0</f>
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>D8+6</f>
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>D9+0</f>
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>57591</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f>D10+2</f>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>D11+0</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>D12+0</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>D13+5</f>
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>D14+0</f>
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>D15+5</f>
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>D16+0</f>
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>195774</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <f>D17+0</f>
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>56</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>D18+2</f>
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>D19+0</f>
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>D20+5+2</f>
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>D21+0</f>
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" t="s">
+        <v>86</v>
+      </c>
+      <c r="T21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>62</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>D22+0</f>
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>159900</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <f>D23+2</f>
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>55858</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f>D24+1</f>
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>71</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E31" si="1">D25+0</f>
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>83</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>79</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>74</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f>D32+5</f>
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>D33+5</f>
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f>D34+5</f>
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>11503</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <f>D35+1</f>
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>52</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f>D36+5</f>
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f>D37+0</f>
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>D38+5+1</f>
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>D39+2</f>
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>D40+0</f>
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>61</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f>D41+3</f>
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>82</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f>D42+0</f>
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>67</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f>D43+0</f>
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>D44+5</f>
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>76</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>D45+0</f>
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>D46+5+2</f>
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>D47+2</f>
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>69</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>D48+2</f>
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>D49+0</f>
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>31</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>D50+0</f>
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>42</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>D51+1</f>
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>46</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>D52+2</f>
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>D53+0</f>
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>D54+1+2</f>
+        <v>3</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>29314</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <f>D55+5+1</f>
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>D56+0</f>
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>29</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>D57+0</f>
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>D58+5</f>
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>75</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>D59+0</f>
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f>D60+2+6</f>
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>41</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f>D61+0</f>
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>23</v>
+      </c>
+      <c r="B62">
+        <v>7811</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <f>D62+2</f>
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f>D63+0</f>
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>21</v>
+      </c>
+      <c r="B64">
+        <v>6702</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <f>D64+2+1</f>
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>81</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f>D65+1</f>
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>